--- a/stepexcel.xlsx
+++ b/stepexcel.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="9888" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="9936" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,6 +21,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <x:si>
+    <x:t>음식섭취금지
+4m²당 1명인원 제한 또는 한칸 띄우기 실시(21시 이후 운영 중단)
+또는 8m²당 1명인원 제한 또는 두칸 띄우기</x:t>
+  </x:si>
+  <x:si>
     <x:t>기본 방역수칙 의무화(마스크 착용, 출입자 명단 관리, 환기소독 등)</x:t>
   </x:si>
   <x:si>
@@ -48,15 +53,9 @@
     <x:t>PC방</x:t>
   </x:si>
   <x:si>
-    <x:t>4m²당 1명인원 제한\n춤추기, 좌석 간 이동 금지</x:t>
-  </x:si>
-  <x:si>
     <x:t>이용한 룸은 바로 소독, 30분 후 사용</x:t>
   </x:si>
   <x:si>
-    <x:t>테이블 간 1m 거리두기 또는 좌석/테이블 한칸 띄우기 또는 테이블 간 칸막이 설치(50m² 이상)\n카페는 포장·배달만 허용\n음식점은 21시 이후로 포장·배달만 허용\n</x:t>
-  </x:si>
-  <x:si>
     <x:t>1.5단계</x:t>
   </x:si>
   <x:si>
@@ -66,7 +65,14 @@
     <x:t>2.5단계</x:t>
   </x:si>
   <x:si>
-    <x:t>음식섭취금지\n4m²당 1명인원 제한 또는 한칸 띄우기 실시와 21시 이후 운영 중단\n 또는 8m²당 1명인원 제한 또는 두칸 띄우기</x:t>
+    <x:t>음식섭취금지
+좌석 한칸 띄우기(칸막이 있는 경우 제외)
+단체룸은 50%로 인원 제한, 21시 이후 운영 중단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식섭취금지(칸막이 안에서 개별 섭취시 제외)
+좌석 한 칸 띄우기(칸막이 있는 경우 제외)
+21시 이후 운영 중단</x:t>
   </x:si>
   <x:si>
     <x:t>테이블 간 1m 거리두기 또는 좌석/테이블 한칸 띄우기 또는 테이블 간 칸막이 설치(150m² 이상)</x:t>
@@ -75,21 +81,6 @@
     <x:t>집합금지</x:t>
   </x:si>
   <x:si>
-    <x:t>21시 이후 운영 중단\n음식섭취금지\n좌석 한칸 띄우기(칸막이 있는 경우 제외)\n단체룸은 50%로 인원 제한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용한 룸은 바로 소독, 30분 후 사용\n4m²당 1명인원 제한\n음식섭취금지\n</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다른 일행 간 좌석 띄우기(칸막이 있는 경우 제외)\n단체룸은 50%로 인원제한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21시 이후 운영 중단\n음식섭취금지\n8m²당 1명인원 제한 또는 두칸 띄우기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식섭취금지(칸막이 안에서 개별 섭취시 제외)\n좌석 한 칸 띄우기(칸막이 있는 경우 제외)</x:t>
-  </x:si>
-  <x:si>
     <x:t>유흥시설</x:t>
   </x:si>
   <x:si>
@@ -99,22 +90,54 @@
     <x:t>테이블 간 1m 거리두기 또는 좌석/테이블 한칸 띄우기 또는 테이블 간 칸막이 설치(50m² 이상)</x:t>
   </x:si>
   <x:si>
-    <x:t>8m²당 1명 인원 제한 추가\n카페는 포장·배달만 허용\n음식점은 21시 이후로 포장·배달만 허용</x:t>
-  </x:si>
-  <x:si>
     <x:t>다른 일행 간 좌석 띄우기(칸막이 있는 경우 제외)</x:t>
   </x:si>
   <x:si>
-    <x:t>21시 이후 운영 중단\n이용한 룸은 바로 소독, 30분 후 사용\n4m²당 1명인원 제한\n음식섭취금지\n</x:t>
-  </x:si>
-  <x:si>
     <x:t>4m²당 1명인원 제한</x:t>
   </x:si>
   <x:si>
-    <x:t>음식섭취금지(칸막이 안에서 개별 섭취시 제외)\n좌석 한 칸 띄우기(칸막이 있는 경우 제외)\n21시 이후 운영 중단\n</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식섭취금지\n좌석 한칸 띄우기(칸막이 있는 경우 제외)\n단체룸은 50%로 인원 제한, 21시 이후 운영 중단</x:t>
+    <x:t>21시 이후 운영 중단
+음식섭취금지
+8m²당 1명인원 제한 또는 두칸 띄우기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다른 일행 간 좌석 띄우기(칸막이 있는 경우 제외)
+단체룸은 50%로 인원제한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21시 이후 운영 중단
+이용한 룸은 바로 소독, 30분 후 사용
+4m²당 1명인원 제한
+음식섭취금지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용한 룸은 바로 소독, 30분 후 사용
+4m²당 1명인원 제한
+음식섭취금지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 간 1m 거리두기 또는 좌석/테이블 한칸 띄우기 또는 테이블 간 칸막이 설치(50m² 이상)
+카페는 포장·배달만 허용
+음식점은 21시 이후로 포장·배달만 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식섭취금지(칸막이 안에서 개별 섭취시 제외)
+좌석 한 칸 띄우기(칸막이 있는 경우 제외)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4m²당 1명인원 제한
+춤추기, 좌석 간 이동 금지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21시 이후 운영 중단
+음식섭취금지
+좌석 한칸 띄우기(칸막이 있는 경우 제외)
+단체룸은 50%로 인원 제한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8m²당 1명 인원 제한 추가
+카페는 포장·배달만 허용
+음식점은 21시 이후로 포장·배달만 허용</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,9 +205,15 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -851,151 +880,151 @@
   <x:dimension ref="A1:H6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G6" activeCellId="0" sqref="G6:G6"/>
+      <x:selection activeCell="T4" activeCellId="0" sqref="T4:T4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
+      <x:c r="B1" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>24</x:v>
+      <x:c r="G1" s="1" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" t="s">
+      <x:c r="A2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" t="s">
+      <x:c r="F2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7" ht="163.69999999999999">
+      <x:c r="A3" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E2" t="s">
+      <x:c r="C3" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" ht="311.05000000000001">
+      <x:c r="A4" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" t="s">
-        <x:v>0</x:v>
+      <x:c r="G4" s="2" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
-      <x:c r="A3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E3" t="s">
+    <x:row r="5" spans="1:7" ht="311.05000000000001">
+      <x:c r="A5" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" t="s">
-        <x:v>20</x:v>
+      <x:c r="E5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7">
-      <x:c r="A4" t="s">
+    <x:row r="6" spans="1:7" ht="180.09999999999999">
+      <x:c r="A6" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C4" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G4" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
-      <x:c r="A5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F5" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="A6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G6" t="s">
+      <x:c r="G6" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>